--- a/Portal_Data_0306.xlsx
+++ b/Portal_Data_0306.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10197378\Desktop\CPI\Dashboard\Github_Files\CPI_Bahrain-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF084121-B219-4AC0-A957-B2AB1F5833B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31890ED4-8A85-459E-90DC-F33B7AEEB63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="76">
   <si>
     <t>Indicator</t>
   </si>
@@ -216,11 +216,50 @@
   <si>
     <t>2022-06</t>
   </si>
+  <si>
+    <t>112.6</t>
+  </si>
+  <si>
+    <t>129.8</t>
+  </si>
+  <si>
+    <t>109.8</t>
+  </si>
+  <si>
+    <t>103.6</t>
+  </si>
+  <si>
+    <t>107.5</t>
+  </si>
+  <si>
+    <t>101.9</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>105.3</t>
+  </si>
+  <si>
+    <t>111.7</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>110.8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,11 +318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,14 +662,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N25" sqref="N25"/>
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S239" sqref="S239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -732,7 +776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -830,7 +874,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -928,7 +972,7 @@
         <v>130.19999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1026,7 +1070,7 @@
         <v>116.4</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1124,7 +1168,7 @@
         <v>106.52647649009005</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1222,7 +1266,7 @@
         <v>124.8</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1364,7 @@
         <v>1177.9901683857299</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1384,6 +1428,12 @@
       <c r="U8">
         <v>274.40895890000002</v>
       </c>
+      <c r="V8">
+        <v>276.8</v>
+      </c>
+      <c r="W8">
+        <v>277.39999999999998</v>
+      </c>
       <c r="X8">
         <v>277.8</v>
       </c>
@@ -1406,7 +1456,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1598,8 +1648,11 @@
       <c r="AF10">
         <v>110.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1694,7 +1747,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1792,7 +1845,7 @@
         <v>105.99</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1893,7 +1946,7 @@
         <v>103.14</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1991,7 +2044,7 @@
         <v>106.42</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2086,7 +2139,7 @@
         <v>49662.75</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2133,7 +2186,7 @@
         <v>2871.06</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2228,7 +2281,7 @@
         <v>144.5</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2311,7 +2364,7 @@
         <v>108.62</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2409,7 +2462,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2507,7 +2560,7 @@
         <v>132.9</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2605,7 +2658,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2703,7 +2756,7 @@
         <v>107.98002181566186</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2801,7 +2854,7 @@
         <v>132.80000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2899,7 +2952,7 @@
         <v>4899.39063071073</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2963,6 +3016,12 @@
       <c r="U25">
         <v>313.12704830000001</v>
       </c>
+      <c r="V25">
+        <v>315.39999999999998</v>
+      </c>
+      <c r="W25">
+        <v>316.89999999999998</v>
+      </c>
       <c r="X25">
         <v>316.8</v>
       </c>
@@ -2985,7 +3044,7 @@
         <v>326.5</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3177,8 +3236,11 @@
       <c r="AF27">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3273,7 +3335,7 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3371,7 +3433,7 @@
         <v>109.93</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3472,7 +3534,7 @@
         <v>106.59</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3570,7 +3632,7 @@
         <v>121.48</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3665,7 +3727,7 @@
         <v>30734.6</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3712,7 +3774,7 @@
         <v>3680.29</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3807,7 +3869,7 @@
         <v>144.1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3890,7 +3952,7 @@
         <v>113.46</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -3988,7 +4050,7 @@
         <v>130.69999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -4086,7 +4148,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -4184,7 +4246,7 @@
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -4282,7 +4344,7 @@
         <v>103.9091029232348</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -4380,7 +4442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -4478,7 +4540,7 @@
         <v>3359.1870267580011</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -4542,6 +4604,12 @@
       <c r="U42">
         <v>264.10000000000002</v>
       </c>
+      <c r="V42">
+        <v>264.10000000000002</v>
+      </c>
+      <c r="W42">
+        <v>264.10000000000002</v>
+      </c>
       <c r="X42">
         <v>264.10000000000002</v>
       </c>
@@ -4564,7 +4632,7 @@
         <v>264.10000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -4756,8 +4824,11 @@
       <c r="AF44">
         <v>129.80000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -4852,7 +4923,7 @@
         <v>261.60000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4950,7 +5021,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -5051,7 +5122,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -5149,7 +5220,7 @@
         <v>114.77</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -5244,7 +5315,7 @@
         <v>23679.61</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -5291,7 +5362,7 @@
         <v>5702.7</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -5386,7 +5457,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -5469,7 +5540,7 @@
         <v>205.88</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -5567,7 +5638,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -5665,7 +5736,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -5763,7 +5834,7 @@
         <v>110.1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -5861,7 +5932,7 @@
         <v>96.404970154756015</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -5959,7 +6030,7 @@
         <v>123.6</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -6057,7 +6128,7 @@
         <v>5874.2666158627626</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -6121,6 +6192,12 @@
       <c r="U59">
         <v>415.43700280000002</v>
       </c>
+      <c r="V59">
+        <v>417.1</v>
+      </c>
+      <c r="W59">
+        <v>416.5</v>
+      </c>
       <c r="X59">
         <v>417.7</v>
       </c>
@@ -6143,7 +6220,7 @@
         <v>430.9</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -6335,8 +6412,11 @@
       <c r="AF61">
         <v>109.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -6431,7 +6511,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -6529,7 +6609,7 @@
         <v>97.33</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -6630,7 +6710,7 @@
         <v>89.95</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -6728,7 +6808,7 @@
         <v>102.58</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -6823,7 +6903,7 @@
         <v>37269.620000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -6870,7 +6950,7 @@
         <v>2537.0300000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -6965,7 +7045,7 @@
         <v>164.8</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -7048,7 +7128,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -7146,7 +7226,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -7244,7 +7324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -7342,7 +7422,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -7440,7 +7520,7 @@
         <v>106.85943349001833</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -7538,7 +7618,7 @@
         <v>117.7</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -7636,7 +7716,7 @@
         <v>298.59157252784809</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -7700,6 +7780,12 @@
       <c r="U76">
         <v>176.45001439999999</v>
       </c>
+      <c r="V76">
+        <v>176.6</v>
+      </c>
+      <c r="W76">
+        <v>176.7</v>
+      </c>
       <c r="X76">
         <v>177.9</v>
       </c>
@@ -7722,7 +7808,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -7817,7 +7903,7 @@
         <v>107.16595453483667</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -7914,8 +8000,11 @@
       <c r="AF78">
         <v>103.4</v>
       </c>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -8010,7 +8099,7 @@
         <v>106.4</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -8108,7 +8197,7 @@
         <v>106.72</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -8209,7 +8298,7 @@
         <v>92.04</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -8307,7 +8396,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -8402,7 +8491,7 @@
         <v>20478.63</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -8449,7 +8538,7 @@
         <v>768.24</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -8544,7 +8633,7 @@
         <v>136.69999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -8627,7 +8716,7 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -8725,7 +8814,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -8823,7 +8912,7 @@
         <v>115.7</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>31</v>
       </c>
@@ -8921,7 +9010,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -9019,7 +9108,7 @@
         <v>103.91373088712399</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -9117,7 +9206,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -9215,7 +9304,7 @@
         <v>4366.78506867329</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -9279,6 +9368,12 @@
       <c r="U93">
         <v>352.3796284</v>
       </c>
+      <c r="V93">
+        <v>355.2</v>
+      </c>
+      <c r="W93">
+        <v>355.5</v>
+      </c>
       <c r="X93">
         <v>355.8</v>
       </c>
@@ -9301,7 +9396,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -9493,8 +9588,11 @@
       <c r="AF95">
         <v>106.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -9589,7 +9687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -9687,7 +9785,7 @@
         <v>103.12</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -9788,7 +9886,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -9886,7 +9984,7 @@
         <v>110.32</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -9981,7 +10079,7 @@
         <v>32713.279999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -10028,7 +10126,7 @@
         <v>4181.22</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -10123,7 +10221,7 @@
         <v>148.6</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -10206,7 +10304,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>31</v>
       </c>
@@ -10304,7 +10402,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>31</v>
       </c>
@@ -10402,7 +10500,7 @@
         <v>123.8</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -10500,7 +10598,7 @@
         <v>149.19999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -10598,7 +10696,7 @@
         <v>105.95519000591874</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -10696,7 +10794,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -10794,7 +10892,7 @@
         <v>734.62727276641567</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -10858,6 +10956,12 @@
       <c r="U110">
         <v>336.7622303</v>
       </c>
+      <c r="V110">
+        <v>337.6</v>
+      </c>
+      <c r="W110">
+        <v>337.6</v>
+      </c>
       <c r="X110">
         <v>339</v>
       </c>
@@ -10880,7 +10984,7 @@
         <v>346.8</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -11072,8 +11176,11 @@
       <c r="AF112">
         <v>101.9</v>
       </c>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -11168,7 +11275,7 @@
         <v>112.2</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -11266,7 +11373,7 @@
         <v>99.57</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -11367,7 +11474,7 @@
         <v>98.27</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -11465,7 +11572,7 @@
         <v>103.22</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -11560,7 +11667,7 @@
         <v>18144.330000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -11607,7 +11714,7 @@
         <v>2355.5100000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -11702,7 +11809,7 @@
         <v>139.1</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -11785,7 +11892,7 @@
         <v>106.53</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -11883,7 +11990,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -11981,7 +12088,7 @@
         <v>129.6</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -12079,7 +12186,7 @@
         <v>112.9</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -12177,7 +12284,7 @@
         <v>107.67036278709638</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -12275,7 +12382,7 @@
         <v>137.1</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -12373,7 +12480,7 @@
         <v>2811.9837487175205</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -12437,6 +12544,12 @@
       <c r="U127">
         <v>189.142079</v>
       </c>
+      <c r="V127">
+        <v>202.9</v>
+      </c>
+      <c r="W127">
+        <v>202.9</v>
+      </c>
       <c r="X127">
         <v>203.6</v>
       </c>
@@ -12459,7 +12572,7 @@
         <v>208.1</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -12651,8 +12764,11 @@
       <c r="AF129">
         <v>119.7</v>
       </c>
-    </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG129" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -12747,7 +12863,7 @@
         <v>117.1</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>31</v>
       </c>
@@ -12845,7 +12961,7 @@
         <v>104.11</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -12946,7 +13062,7 @@
         <v>109.09</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -13044,7 +13160,7 @@
         <v>117.03</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -13139,7 +13255,7 @@
         <v>258505</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -13186,7 +13302,7 @@
         <v>2501.13</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -13281,7 +13397,7 @@
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>31</v>
       </c>
@@ -13364,7 +13480,7 @@
         <v>120.51</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -13462,7 +13578,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -13560,7 +13676,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -13658,7 +13774,7 @@
         <v>119.2</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -13756,7 +13872,7 @@
         <v>103.32222809620981</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -13854,7 +13970,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -13952,7 +14068,7 @@
         <v>203.63725654179296</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -14016,6 +14132,12 @@
       <c r="U144">
         <v>83.048897060000002</v>
       </c>
+      <c r="V144">
+        <v>83.3</v>
+      </c>
+      <c r="W144">
+        <v>83.3</v>
+      </c>
       <c r="X144">
         <v>83.3</v>
       </c>
@@ -14038,7 +14160,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -14230,8 +14352,11 @@
       <c r="AF146">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -14326,7 +14451,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -14424,7 +14549,7 @@
         <v>94.64</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -14525,7 +14650,7 @@
         <v>93.06</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -14623,7 +14748,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -14718,7 +14843,7 @@
         <v>17288.48</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -14765,7 +14890,7 @@
         <v>448.23</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -14860,7 +14985,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -14943,7 +15068,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -15041,7 +15166,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -15139,7 +15264,7 @@
         <v>153.5</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -15237,7 +15362,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -15335,7 +15460,7 @@
         <v>104.32461133651657</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -15433,7 +15558,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -15531,7 +15656,7 @@
         <v>1237.1561937301249</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -15595,6 +15720,12 @@
       <c r="U161">
         <v>204.65417959999999</v>
       </c>
+      <c r="V161">
+        <v>204.9</v>
+      </c>
+      <c r="W161">
+        <v>205</v>
+      </c>
       <c r="X161">
         <v>204.8</v>
       </c>
@@ -15617,7 +15748,7 @@
         <v>206.6</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -15809,8 +15940,11 @@
       <c r="AF163">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG163" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -15905,7 +16039,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -16003,7 +16137,7 @@
         <v>124.33</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>31</v>
       </c>
@@ -16104,7 +16238,7 @@
         <v>110.43</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>31</v>
       </c>
@@ -16202,7 +16336,7 @@
         <v>104.98</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -16297,7 +16431,7 @@
         <v>96150.32</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>31</v>
       </c>
@@ -16344,7 +16478,7 @@
         <v>3633.18</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -16439,7 +16573,7 @@
         <v>131.4</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -16522,7 +16656,7 @@
         <v>102.73</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>31</v>
       </c>
@@ -16620,7 +16754,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>31</v>
       </c>
@@ -16718,7 +16852,7 @@
         <v>196.4</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>31</v>
       </c>
@@ -16816,7 +16950,7 @@
         <v>154.80000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>31</v>
       </c>
@@ -16914,7 +17048,7 @@
         <v>105.63046980310921</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -17012,7 +17146,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>31</v>
       </c>
@@ -17110,7 +17244,7 @@
         <v>186.21973052356867</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -17174,6 +17308,12 @@
       <c r="U178">
         <v>379.99551120000001</v>
       </c>
+      <c r="V178">
+        <v>380</v>
+      </c>
+      <c r="W178">
+        <v>380</v>
+      </c>
       <c r="X178">
         <v>380</v>
       </c>
@@ -17196,7 +17336,7 @@
         <v>380.1</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>31</v>
       </c>
@@ -17388,8 +17528,11 @@
       <c r="AF180">
         <v>111.7</v>
       </c>
-    </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG180" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -17484,7 +17627,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>31</v>
       </c>
@@ -17582,7 +17725,7 @@
         <v>102.32</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>31</v>
       </c>
@@ -17683,7 +17826,7 @@
         <v>110.8</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -17781,7 +17924,7 @@
         <v>99.78</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>31</v>
       </c>
@@ -17876,7 +18019,7 @@
         <v>14807.51</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>31</v>
       </c>
@@ -17923,7 +18066,7 @@
         <v>1145.24</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>31</v>
       </c>
@@ -18018,7 +18161,7 @@
         <v>159.4</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>31</v>
       </c>
@@ -18101,7 +18244,7 @@
         <v>120.79</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>31</v>
       </c>
@@ -18199,7 +18342,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>31</v>
       </c>
@@ -18297,7 +18440,7 @@
         <v>134.9</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>31</v>
       </c>
@@ -18395,7 +18538,7 @@
         <v>125.6</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>31</v>
       </c>
@@ -18493,7 +18636,7 @@
         <v>115.93842775998611</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -18591,7 +18734,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>31</v>
       </c>
@@ -18689,7 +18832,7 @@
         <v>5840.6983830675435</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>31</v>
       </c>
@@ -18753,6 +18896,12 @@
       <c r="U195">
         <v>340.80958079999999</v>
       </c>
+      <c r="V195">
+        <v>342.8</v>
+      </c>
+      <c r="W195">
+        <v>342.8</v>
+      </c>
       <c r="X195">
         <v>343</v>
       </c>
@@ -18775,7 +18924,7 @@
         <v>346.2</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>31</v>
       </c>
@@ -18967,8 +19116,11 @@
       <c r="AF197">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG197" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>31</v>
       </c>
@@ -19063,7 +19215,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>31</v>
       </c>
@@ -19161,7 +19313,7 @@
         <v>110.61</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>31</v>
       </c>
@@ -19262,7 +19414,7 @@
         <v>106.51</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>31</v>
       </c>
@@ -19360,7 +19512,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>31</v>
       </c>
@@ -19455,7 +19607,7 @@
         <v>40543.519999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -19502,7 +19654,7 @@
         <v>16324.87</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>31</v>
       </c>
@@ -19597,7 +19749,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>31</v>
       </c>
@@ -19680,7 +19832,7 @@
         <v>117.96</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -19778,7 +19930,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -19876,7 +20028,7 @@
         <v>125.9</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>31</v>
       </c>
@@ -19974,7 +20126,7 @@
         <v>143.80000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>31</v>
       </c>
@@ -20072,7 +20224,7 @@
         <v>105.72445093484504</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>31</v>
       </c>
@@ -20170,7 +20322,7 @@
         <v>122.1</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>31</v>
       </c>
@@ -20268,7 +20420,7 @@
         <v>2513.2088007850048</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>31</v>
       </c>
@@ -20332,6 +20484,12 @@
       <c r="U212">
         <v>288.86352419999997</v>
       </c>
+      <c r="V212">
+        <v>290.3</v>
+      </c>
+      <c r="W212">
+        <v>290.3</v>
+      </c>
       <c r="X212">
         <v>290.3</v>
       </c>
@@ -20354,7 +20512,7 @@
         <v>297.2</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -20546,8 +20704,11 @@
       <c r="AF214">
         <v>109.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG214" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -20642,7 +20803,7 @@
         <v>104.2</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>31</v>
       </c>
@@ -20740,7 +20901,7 @@
         <v>109.45</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>31</v>
       </c>
@@ -20841,7 +21002,7 @@
         <v>109.28</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>31</v>
       </c>
@@ -20939,7 +21100,7 @@
         <v>108.54</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>31</v>
       </c>
@@ -21034,7 +21195,7 @@
         <v>34729.379999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>31</v>
       </c>
@@ -21081,7 +21242,7 @@
         <v>3362.99</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -21176,7 +21337,7 @@
         <v>158.4</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>31</v>
       </c>
@@ -21260,6 +21421,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AG222" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Morocco"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
